--- a/ETF列表.xlsx
+++ b/ETF列表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
   <si>
     <t>证券代码</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>标普消费ETF</t>
+  </si>
+  <si>
+    <t>巴西ETF</t>
   </si>
   <si>
     <t>沙特ETF</t>
@@ -1363,10 +1366,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B164"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>159329</v>
+        <v>159100</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1401,7 +1404,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>159612</v>
+        <v>159329</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1409,7 +1412,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>159561</v>
+        <v>159612</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1417,7 +1420,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>159687</v>
+        <v>159561</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1425,7 +1428,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>159655</v>
+        <v>159687</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1433,23 +1436,23 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>520830</v>
+        <v>159655</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>513390</v>
+        <v>520830</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>159509</v>
+        <v>513390</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>9</v>
@@ -1457,7 +1460,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>159632</v>
+        <v>159509</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -1465,55 +1468,55 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>513500</v>
+        <v>159632</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>159941</v>
+        <v>513500</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>159660</v>
+        <v>159941</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>513300</v>
+        <v>159660</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>513030</v>
+        <v>513300</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>513100</v>
+        <v>513030</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>513400</v>
+        <v>513100</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>12</v>
@@ -1521,7 +1524,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>513520</v>
+        <v>513400</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>159518</v>
+        <v>513520</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -1537,7 +1540,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>513850</v>
+        <v>159518</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
@@ -1545,7 +1548,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>513110</v>
+        <v>513850</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
@@ -1553,7 +1556,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>159513</v>
+        <v>513110</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -1561,23 +1564,23 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>159577</v>
+        <v>159513</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>513650</v>
+        <v>159577</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>159696</v>
+        <v>513650</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
@@ -1585,7 +1588,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>513360</v>
+        <v>159696</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>20</v>
@@ -1593,23 +1596,23 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>159659</v>
+        <v>513360</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>513870</v>
+        <v>159659</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>159501</v>
+        <v>513870</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>22</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>513080</v>
+        <v>159501</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -1625,23 +1628,23 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>513350</v>
+        <v>513080</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>161130</v>
+        <v>513350</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>161128</v>
+        <v>161130</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>25</v>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>501307</v>
+        <v>161128</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>26</v>
@@ -1657,23 +1660,23 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>159866</v>
+        <v>501307</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>513880</v>
+        <v>159866</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>513290</v>
+        <v>513880</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>28</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>161125</v>
+        <v>513290</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>29</v>
@@ -1689,7 +1692,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>159502</v>
+        <v>161125</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
@@ -1697,7 +1700,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>520990</v>
+        <v>159502</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>31</v>
@@ -1705,7 +1708,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>513630</v>
+        <v>520990</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>32</v>
@@ -1713,7 +1716,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>520900</v>
+        <v>513630</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>33</v>
@@ -1721,7 +1724,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>520660</v>
+        <v>520900</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>34</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>513820</v>
+        <v>520660</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>35</v>
@@ -1737,7 +1740,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>513910</v>
+        <v>513820</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>36</v>
@@ -1745,7 +1748,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>513810</v>
+        <v>513910</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>37</v>
@@ -1753,7 +1756,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>513000</v>
+        <v>513810</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>38</v>
@@ -1761,7 +1764,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>513190</v>
+        <v>513000</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>39</v>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>513920</v>
+        <v>513190</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>40</v>
@@ -1777,7 +1780,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>159954</v>
+        <v>513920</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>41</v>
@@ -1785,7 +1788,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>159545</v>
+        <v>159954</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>42</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>513040</v>
+        <v>159545</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>43</v>
@@ -1801,7 +1804,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>513170</v>
+        <v>513040</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>44</v>
@@ -1809,7 +1812,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>513690</v>
+        <v>513170</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>45</v>
@@ -1817,7 +1820,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>513210</v>
+        <v>513690</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>46</v>
@@ -1825,7 +1828,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>513600</v>
+        <v>513210</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>47</v>
@@ -1833,7 +1836,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>513010</v>
+        <v>513600</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>48</v>
@@ -1841,7 +1844,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>513050</v>
+        <v>513010</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>49</v>
@@ -1849,7 +1852,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>501312</v>
+        <v>513050</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>50</v>
@@ -1857,7 +1860,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>159691</v>
+        <v>501312</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>51</v>
@@ -1865,7 +1868,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>159726</v>
+        <v>159691</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>52</v>
@@ -1873,7 +1876,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>513320</v>
+        <v>159726</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>53</v>
@@ -1881,31 +1884,31 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>510900</v>
+        <v>513320</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>159792</v>
+        <v>510900</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>513730</v>
+        <v>159792</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>159636</v>
+        <v>513730</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>55</v>
@@ -1913,7 +1916,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>513070</v>
+        <v>159636</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>56</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>513230</v>
+        <v>513070</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>57</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>159312</v>
+        <v>513230</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>58</v>
@@ -1937,7 +1940,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>513260</v>
+        <v>159312</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>59</v>
@@ -1945,7 +1948,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>513660</v>
+        <v>513260</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>60</v>
@@ -1953,7 +1956,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>159788</v>
+        <v>513660</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>61</v>
@@ -1961,7 +1964,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>513060</v>
+        <v>159788</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>62</v>
@@ -1969,7 +1972,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>159615</v>
+        <v>513060</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>63</v>
@@ -1977,7 +1980,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>159747</v>
+        <v>159615</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>64</v>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>162415</v>
+        <v>159747</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>65</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>159892</v>
+        <v>162415</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>66</v>
@@ -2001,23 +2004,23 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>513280</v>
+        <v>159892</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>159850</v>
+        <v>513280</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>513550</v>
+        <v>159850</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>68</v>
@@ -2025,7 +2028,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>513580</v>
+        <v>513550</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>69</v>
@@ -2033,7 +2036,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>159569</v>
+        <v>513580</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>70</v>
@@ -2041,7 +2044,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>513180</v>
+        <v>159569</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>71</v>
@@ -2049,7 +2052,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>513120</v>
+        <v>513180</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>72</v>
@@ -2057,23 +2060,23 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>159920</v>
+        <v>513120</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>513200</v>
+        <v>159920</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>159688</v>
+        <v>513200</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>74</v>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>513140</v>
+        <v>159688</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>75</v>
@@ -2089,7 +2092,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>159333</v>
+        <v>513140</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>76</v>
@@ -2097,7 +2100,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>159557</v>
+        <v>159333</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>77</v>
@@ -2105,7 +2108,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>513780</v>
+        <v>159557</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>78</v>
@@ -2113,7 +2116,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>159711</v>
+        <v>513780</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2121,7 +2124,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>164824</v>
+        <v>159711</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>80</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>513150</v>
+        <v>164824</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>81</v>
@@ -2137,7 +2140,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>513530</v>
+        <v>513150</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>82</v>
@@ -2145,7 +2148,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>513700</v>
+        <v>513530</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>83</v>
@@ -2153,7 +2156,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>513590</v>
+        <v>513700</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>84</v>
@@ -2161,39 +2164,39 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>159506</v>
+        <v>513590</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>513990</v>
+        <v>159506</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>513330</v>
+        <v>513990</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>501300</v>
+        <v>513330</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>513220</v>
+        <v>501300</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>86</v>
@@ -2201,7 +2204,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>159331</v>
+        <v>513220</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>87</v>
@@ -2209,7 +2212,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>513860</v>
+        <v>159331</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>88</v>
@@ -2217,7 +2220,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>513750</v>
+        <v>513860</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>89</v>
@@ -2225,7 +2228,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>159960</v>
+        <v>513750</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>90</v>
@@ -2233,7 +2236,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>159751</v>
+        <v>159960</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>91</v>
@@ -2241,31 +2244,31 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>159742</v>
+        <v>159751</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>159302</v>
+        <v>159742</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>520520</v>
+        <v>159302</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>159568</v>
+        <v>520520</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>93</v>
@@ -2273,23 +2276,23 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>513950</v>
+        <v>159568</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>520890</v>
+        <v>513950</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>513160</v>
+        <v>520890</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>95</v>
@@ -2297,23 +2300,23 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>159735</v>
+        <v>513160</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>159750</v>
+        <v>159735</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>159570</v>
+        <v>159750</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>97</v>
@@ -2321,7 +2324,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>513800</v>
+        <v>159570</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>98</v>
@@ -2329,47 +2332,47 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>159776</v>
+        <v>513800</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>159712</v>
+        <v>159776</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>159567</v>
+        <v>159712</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>513560</v>
+        <v>159567</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>159718</v>
+        <v>513560</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>513090</v>
+        <v>159718</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>100</v>
@@ -2377,7 +2380,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>161127</v>
+        <v>513090</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>101</v>
@@ -2385,7 +2388,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>159303</v>
+        <v>161127</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>102</v>
@@ -2393,23 +2396,23 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>159519</v>
+        <v>159303</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>513980</v>
+        <v>159519</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>520700</v>
+        <v>513980</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>104</v>
@@ -2417,7 +2420,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>501301</v>
+        <v>520700</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>105</v>
@@ -2425,7 +2428,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>513380</v>
+        <v>501301</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>106</v>
@@ -2433,23 +2436,23 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>513770</v>
+        <v>513380</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>160140</v>
+        <v>513770</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>159318</v>
+        <v>160140</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>108</v>
@@ -2457,7 +2460,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>159822</v>
+        <v>159318</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>109</v>
@@ -2465,7 +2468,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>501025</v>
+        <v>159822</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>110</v>
@@ -2473,7 +2476,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>164705</v>
+        <v>501025</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>111</v>
@@ -2481,23 +2484,23 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>513900</v>
+        <v>164705</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>513890</v>
+        <v>513900</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>160924</v>
+        <v>513890</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>113</v>
@@ -2505,7 +2508,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>501302</v>
+        <v>160924</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>114</v>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>159699</v>
+        <v>501302</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>115</v>
@@ -2521,15 +2524,15 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>513970</v>
+        <v>159699</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>159740</v>
+        <v>513970</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>116</v>
@@ -2537,7 +2540,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>501305</v>
+        <v>159740</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>117</v>
@@ -2545,7 +2548,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>160717</v>
+        <v>501305</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>118</v>
@@ -2553,7 +2556,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>161126</v>
+        <v>160717</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>119</v>
@@ -2561,63 +2564,63 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>513020</v>
+        <v>161126</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>501306</v>
+        <v>513020</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>159607</v>
+        <v>501306</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>513130</v>
+        <v>159607</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>159741</v>
+        <v>513130</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>159605</v>
+        <v>159741</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>501225</v>
+        <v>159605</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>160644</v>
+        <v>501225</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>122</v>
@@ -2625,7 +2628,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>161831</v>
+        <v>160644</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>123</v>
@@ -2633,7 +2636,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>501021</v>
+        <v>161831</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>124</v>
@@ -2641,7 +2644,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>160322</v>
+        <v>501021</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>125</v>
@@ -2649,7 +2652,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>161124</v>
+        <v>160322</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>126</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>501303</v>
+        <v>161124</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>127</v>
@@ -2665,7 +2668,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>164906</v>
+        <v>501303</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>128</v>
@@ -2673,7 +2676,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>501310</v>
+        <v>164906</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>129</v>
@@ -2681,10 +2684,18 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>513310</v>
+        <v>501310</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
+        <v>513310</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/ETF列表.xlsx
+++ b/ETF列表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
   <si>
     <t>证券代码</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>巴西ETF</t>
+  </si>
+  <si>
+    <t>白酒基金LOF</t>
   </si>
   <si>
     <t>沙特ETF</t>
@@ -1366,10 +1369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1404,7 +1407,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>159329</v>
+        <v>161725</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1412,7 +1415,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>159612</v>
+        <v>159329</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>159561</v>
+        <v>159612</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1428,7 +1431,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>159687</v>
+        <v>159561</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>159655</v>
+        <v>159687</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -1444,23 +1447,23 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>520830</v>
+        <v>159655</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>513390</v>
+        <v>520830</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>159509</v>
+        <v>513390</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -1468,7 +1471,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>159632</v>
+        <v>159509</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1476,55 +1479,55 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>513500</v>
+        <v>159632</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>159941</v>
+        <v>513500</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>159660</v>
+        <v>159941</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>513300</v>
+        <v>159660</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>513030</v>
+        <v>513300</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>513100</v>
+        <v>513030</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>513400</v>
+        <v>513100</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>13</v>
@@ -1532,7 +1535,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>513520</v>
+        <v>513400</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>14</v>
@@ -1540,7 +1543,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>159518</v>
+        <v>513520</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
@@ -1548,7 +1551,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>513850</v>
+        <v>159518</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
@@ -1556,7 +1559,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>513110</v>
+        <v>513850</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -1564,7 +1567,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>159513</v>
+        <v>513110</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>18</v>
@@ -1572,23 +1575,23 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>159577</v>
+        <v>159513</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>513650</v>
+        <v>159577</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>159696</v>
+        <v>513650</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>20</v>
@@ -1596,7 +1599,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>513360</v>
+        <v>159696</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -1604,23 +1607,23 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>159659</v>
+        <v>513360</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>513870</v>
+        <v>159659</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>159501</v>
+        <v>513870</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>23</v>
@@ -1628,7 +1631,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>513080</v>
+        <v>159501</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>24</v>
@@ -1636,23 +1639,23 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>513350</v>
+        <v>513080</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>161130</v>
+        <v>513350</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>161128</v>
+        <v>161130</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>26</v>
@@ -1660,7 +1663,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>501307</v>
+        <v>161128</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>27</v>
@@ -1668,23 +1671,23 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>159866</v>
+        <v>501307</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>513880</v>
+        <v>159866</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>513290</v>
+        <v>513880</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>29</v>
@@ -1692,7 +1695,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>161125</v>
+        <v>513290</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>159502</v>
+        <v>161125</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>31</v>
@@ -1708,7 +1711,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>520990</v>
+        <v>159502</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>32</v>
@@ -1716,7 +1719,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>513630</v>
+        <v>520990</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>33</v>
@@ -1724,7 +1727,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>520900</v>
+        <v>513630</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>34</v>
@@ -1732,7 +1735,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>520660</v>
+        <v>520900</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>35</v>
@@ -1740,7 +1743,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>513820</v>
+        <v>520660</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>36</v>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>513910</v>
+        <v>513820</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>37</v>
@@ -1756,7 +1759,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>513810</v>
+        <v>513910</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>38</v>
@@ -1764,7 +1767,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>513000</v>
+        <v>513810</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>39</v>
@@ -1772,7 +1775,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>513190</v>
+        <v>513000</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>40</v>
@@ -1780,7 +1783,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>513920</v>
+        <v>513190</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>41</v>
@@ -1788,7 +1791,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>159954</v>
+        <v>513920</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>42</v>
@@ -1796,7 +1799,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>159545</v>
+        <v>159954</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>43</v>
@@ -1804,7 +1807,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>513040</v>
+        <v>159545</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>44</v>
@@ -1812,7 +1815,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>513170</v>
+        <v>513040</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>45</v>
@@ -1820,7 +1823,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>513690</v>
+        <v>513170</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>46</v>
@@ -1828,7 +1831,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>513210</v>
+        <v>513690</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>47</v>
@@ -1836,7 +1839,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>513600</v>
+        <v>513210</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>48</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>513010</v>
+        <v>513600</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>49</v>
@@ -1852,7 +1855,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>513050</v>
+        <v>513010</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>50</v>
@@ -1860,7 +1863,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>501312</v>
+        <v>513050</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>51</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>159691</v>
+        <v>501312</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>52</v>
@@ -1876,7 +1879,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>159726</v>
+        <v>159691</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>53</v>
@@ -1884,7 +1887,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>513320</v>
+        <v>159726</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>54</v>
@@ -1892,31 +1895,31 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>510900</v>
+        <v>513320</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>159792</v>
+        <v>510900</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>513730</v>
+        <v>159792</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>159636</v>
+        <v>513730</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>56</v>
@@ -1924,7 +1927,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>513070</v>
+        <v>159636</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>57</v>
@@ -1932,7 +1935,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>513230</v>
+        <v>513070</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>58</v>
@@ -1940,7 +1943,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>159312</v>
+        <v>513230</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>59</v>
@@ -1948,7 +1951,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>513260</v>
+        <v>159312</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>60</v>
@@ -1956,7 +1959,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>513660</v>
+        <v>513260</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>61</v>
@@ -1964,7 +1967,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>159788</v>
+        <v>513660</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>62</v>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>513060</v>
+        <v>159788</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>63</v>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>159615</v>
+        <v>513060</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>64</v>
@@ -1988,7 +1991,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>159747</v>
+        <v>159615</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>65</v>
@@ -1996,7 +1999,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>162415</v>
+        <v>159747</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>66</v>
@@ -2004,7 +2007,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>159892</v>
+        <v>162415</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>67</v>
@@ -2012,23 +2015,23 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>513280</v>
+        <v>159892</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>159850</v>
+        <v>513280</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>513550</v>
+        <v>159850</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>69</v>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>513580</v>
+        <v>513550</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>70</v>
@@ -2044,7 +2047,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>159569</v>
+        <v>513580</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>71</v>
@@ -2052,7 +2055,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>513180</v>
+        <v>159569</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>72</v>
@@ -2060,7 +2063,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>513120</v>
+        <v>513180</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>73</v>
@@ -2068,23 +2071,23 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>159920</v>
+        <v>513120</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>513200</v>
+        <v>159920</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>159688</v>
+        <v>513200</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>75</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>513140</v>
+        <v>159688</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>76</v>
@@ -2100,7 +2103,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>159333</v>
+        <v>513140</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>77</v>
@@ -2108,7 +2111,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>159557</v>
+        <v>159333</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>78</v>
@@ -2116,7 +2119,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>513780</v>
+        <v>159557</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>79</v>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>159711</v>
+        <v>513780</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>80</v>
@@ -2132,7 +2135,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>164824</v>
+        <v>159711</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>81</v>
@@ -2140,7 +2143,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>513150</v>
+        <v>164824</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>82</v>
@@ -2148,7 +2151,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>513530</v>
+        <v>513150</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>83</v>
@@ -2156,7 +2159,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>513700</v>
+        <v>513530</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>84</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>513590</v>
+        <v>513700</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>85</v>
@@ -2172,39 +2175,39 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>159506</v>
+        <v>513590</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>513990</v>
+        <v>159506</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>513330</v>
+        <v>513990</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>501300</v>
+        <v>513330</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>513220</v>
+        <v>501300</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>87</v>
@@ -2212,7 +2215,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>159331</v>
+        <v>513220</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>88</v>
@@ -2220,7 +2223,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>513860</v>
+        <v>159331</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>89</v>
@@ -2228,7 +2231,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>513750</v>
+        <v>513860</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>90</v>
@@ -2236,7 +2239,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>159960</v>
+        <v>513750</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>91</v>
@@ -2244,7 +2247,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>159751</v>
+        <v>159960</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>92</v>
@@ -2252,31 +2255,31 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>159742</v>
+        <v>159751</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>159302</v>
+        <v>159742</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>520520</v>
+        <v>159302</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>159568</v>
+        <v>520520</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>94</v>
@@ -2284,23 +2287,23 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>513950</v>
+        <v>159568</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>520890</v>
+        <v>513950</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>513160</v>
+        <v>520890</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>96</v>
@@ -2308,23 +2311,23 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>159735</v>
+        <v>513160</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>159750</v>
+        <v>159735</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>159570</v>
+        <v>159750</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>98</v>
@@ -2332,7 +2335,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>513800</v>
+        <v>159570</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>99</v>
@@ -2340,47 +2343,47 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>159776</v>
+        <v>513800</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>159712</v>
+        <v>159776</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>159567</v>
+        <v>159712</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>513560</v>
+        <v>159567</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>159718</v>
+        <v>513560</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>513090</v>
+        <v>159718</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>101</v>
@@ -2388,7 +2391,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>161127</v>
+        <v>513090</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>102</v>
@@ -2396,7 +2399,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>159303</v>
+        <v>161127</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>103</v>
@@ -2404,23 +2407,23 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>159519</v>
+        <v>159303</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>513980</v>
+        <v>159519</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>520700</v>
+        <v>513980</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>105</v>
@@ -2428,7 +2431,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>501301</v>
+        <v>520700</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>106</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>513380</v>
+        <v>501301</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>107</v>
@@ -2444,23 +2447,23 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>513770</v>
+        <v>513380</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>160140</v>
+        <v>513770</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>159318</v>
+        <v>160140</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>109</v>
@@ -2468,7 +2471,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>159822</v>
+        <v>159318</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>110</v>
@@ -2476,7 +2479,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>501025</v>
+        <v>159822</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>111</v>
@@ -2484,7 +2487,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>164705</v>
+        <v>501025</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>112</v>
@@ -2492,23 +2495,23 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>513900</v>
+        <v>164705</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>513890</v>
+        <v>513900</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>160924</v>
+        <v>513890</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>114</v>
@@ -2516,7 +2519,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>501302</v>
+        <v>160924</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>115</v>
@@ -2524,7 +2527,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>159699</v>
+        <v>501302</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>116</v>
@@ -2532,15 +2535,15 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>513970</v>
+        <v>159699</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>159740</v>
+        <v>513970</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>117</v>
@@ -2548,7 +2551,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>501305</v>
+        <v>159740</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>118</v>
@@ -2556,7 +2559,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>160717</v>
+        <v>501305</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>119</v>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>161126</v>
+        <v>160717</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>120</v>
@@ -2572,63 +2575,63 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>513020</v>
+        <v>161126</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>501306</v>
+        <v>513020</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>159607</v>
+        <v>501306</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>513130</v>
+        <v>159607</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>159741</v>
+        <v>513130</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>159605</v>
+        <v>159741</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>501225</v>
+        <v>159605</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>160644</v>
+        <v>501225</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>123</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>161831</v>
+        <v>160644</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>124</v>
@@ -2644,7 +2647,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>501021</v>
+        <v>161831</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>125</v>
@@ -2652,7 +2655,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>160322</v>
+        <v>501021</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>126</v>
@@ -2660,7 +2663,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>161124</v>
+        <v>160322</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>127</v>
@@ -2668,7 +2671,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>501303</v>
+        <v>161124</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>128</v>
@@ -2676,7 +2679,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>164906</v>
+        <v>501303</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>129</v>
@@ -2684,7 +2687,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>501310</v>
+        <v>164906</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>130</v>
@@ -2692,10 +2695,18 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>513310</v>
+        <v>501310</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
+        <v>513310</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/ETF列表.xlsx
+++ b/ETF列表.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$B$1:$B$166</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="87">
   <si>
     <t>证券代码</t>
   </si>
@@ -36,397 +39,259 @@
     <t>证券简称</t>
   </si>
   <si>
+    <t>巴西ETF</t>
+  </si>
+  <si>
+    <t>恒生医疗ETF基金</t>
+  </si>
+  <si>
+    <t>恒生ETF港股通</t>
+  </si>
+  <si>
+    <t>恒生港股通ETF</t>
+  </si>
+  <si>
+    <t>沙特ETF</t>
+  </si>
+  <si>
+    <t>纳斯达克指数ETF</t>
+  </si>
+  <si>
+    <t>标普生物科技ETF</t>
+  </si>
+  <si>
+    <t>恒生医疗ETF</t>
+  </si>
+  <si>
+    <t>纳指科技ETF</t>
+  </si>
+  <si>
+    <t>纳斯达克100指数ETF</t>
+  </si>
+  <si>
+    <t>标普油气ETF</t>
+  </si>
+  <si>
+    <t>港股国企ETF</t>
+  </si>
+  <si>
     <t>标普消费ETF</t>
   </si>
   <si>
-    <t>巴西ETF</t>
+    <t>恒生医疗指数ETF</t>
+  </si>
+  <si>
+    <t>德国ETF</t>
+  </si>
+  <si>
+    <t>港股创新药ETF</t>
+  </si>
+  <si>
+    <t>港股互联网ETF</t>
+  </si>
+  <si>
+    <t>港股通创新药ETF</t>
+  </si>
+  <si>
+    <t>美国50ETF</t>
+  </si>
+  <si>
+    <t>中概互联ETF</t>
+  </si>
+  <si>
+    <t>中概互联网ETF</t>
+  </si>
+  <si>
+    <t>标普500ETF</t>
+  </si>
+  <si>
+    <t>恒生生物科技ETF</t>
+  </si>
+  <si>
+    <t>纳斯达克ETF</t>
+  </si>
+  <si>
+    <t>港股通科技30ETF</t>
+  </si>
+  <si>
+    <t>标普ETF</t>
+  </si>
+  <si>
+    <t>纳斯达克100ETF</t>
+  </si>
+  <si>
+    <t>纳指100ETF</t>
+  </si>
+  <si>
+    <t>亚太精选ETF</t>
+  </si>
+  <si>
+    <t>恒生互联网ETF</t>
+  </si>
+  <si>
+    <t>纳指ETF易方达</t>
+  </si>
+  <si>
+    <t>恒生消费ETF</t>
+  </si>
+  <si>
+    <t>港股通ETF</t>
+  </si>
+  <si>
+    <t>港股通50ETF</t>
+  </si>
+  <si>
+    <t>港股医药ETF</t>
+  </si>
+  <si>
+    <t>港股消费ETF</t>
+  </si>
+  <si>
+    <t>恒生科技ETF</t>
+  </si>
+  <si>
+    <t>恒生科技ETF基金</t>
+  </si>
+  <si>
+    <t>恒生科技指数ETF</t>
+  </si>
+  <si>
+    <t>香港科技ETF</t>
+  </si>
+  <si>
+    <t>香港科技50ETF</t>
+  </si>
+  <si>
+    <t>港股科技ETF</t>
+  </si>
+  <si>
+    <t>港股通医药ETF</t>
+  </si>
+  <si>
+    <t>港股通100ETF</t>
+  </si>
+  <si>
+    <t>港股通互联网ETF</t>
+  </si>
+  <si>
+    <t>新经济ETF</t>
+  </si>
+  <si>
+    <t>恒生国企ETF</t>
+  </si>
+  <si>
+    <t>日经ETF</t>
+  </si>
+  <si>
+    <t>恒生医药ETF</t>
+  </si>
+  <si>
+    <t>恒生ETF</t>
+  </si>
+  <si>
+    <t>纳指ETF</t>
+  </si>
+  <si>
+    <t>恒生中国企业ETF</t>
   </si>
   <si>
     <t>白酒基金LOF</t>
   </si>
   <si>
-    <t>沙特ETF</t>
-  </si>
-  <si>
-    <t>标普500ETF</t>
-  </si>
-  <si>
-    <t>德国ETF</t>
-  </si>
-  <si>
-    <t>亚太精选ETF</t>
-  </si>
-  <si>
-    <t>标普ETF</t>
-  </si>
-  <si>
-    <t>纳指100ETF</t>
-  </si>
-  <si>
-    <t>纳指科技ETF</t>
-  </si>
-  <si>
-    <t>纳斯达克ETF</t>
-  </si>
-  <si>
-    <t>纳指ETF</t>
+    <t>日经225ETF易方达</t>
+  </si>
+  <si>
+    <t>恒生科技30ETF</t>
+  </si>
+  <si>
+    <t>港股消费50ETF</t>
+  </si>
+  <si>
+    <t>法国CAC40ETF</t>
+  </si>
+  <si>
+    <t>香港证券ETF</t>
+  </si>
+  <si>
+    <t>港股金融ETF</t>
+  </si>
+  <si>
+    <t>港股通科技50ETF</t>
+  </si>
+  <si>
+    <t>港股科技30ETF</t>
+  </si>
+  <si>
+    <t>恒生央企ETF</t>
+  </si>
+  <si>
+    <t>港股通金融ETF</t>
+  </si>
+  <si>
+    <t>恒生ETF易方达</t>
+  </si>
+  <si>
+    <t>纳指生物科技ETF</t>
+  </si>
+  <si>
+    <t>中韩半导体ETF</t>
+  </si>
+  <si>
+    <t>恒生新经济ETF</t>
+  </si>
+  <si>
+    <t>教育ETF</t>
+  </si>
+  <si>
+    <t>恒生科技ETF龙头</t>
   </si>
   <si>
     <t>道琼斯ETF</t>
   </si>
   <si>
-    <t>日经ETF</t>
-  </si>
-  <si>
-    <t>标普油气ETF</t>
-  </si>
-  <si>
-    <t>美国50ETF</t>
-  </si>
-  <si>
-    <t>纳斯达克100ETF</t>
-  </si>
-  <si>
-    <t>纳斯达克100指数ETF</t>
+    <t>恒生科技ETF指数基金</t>
+  </si>
+  <si>
+    <t>香港消费ETF</t>
+  </si>
+  <si>
+    <t>恒生指数ETF</t>
   </si>
   <si>
     <t>标普500ETF基金</t>
   </si>
   <si>
-    <t>纳指ETF易方达</t>
-  </si>
-  <si>
-    <t>教育ETF</t>
+    <t>香港医药ETF</t>
+  </si>
+  <si>
+    <t>东南亚科技ETF</t>
+  </si>
+  <si>
+    <t>港股非银ETF</t>
+  </si>
+  <si>
+    <t>港股创新药50ETF</t>
+  </si>
+  <si>
+    <t>日本东证指数ETF</t>
+  </si>
+  <si>
+    <t>港股通科技ETF</t>
   </si>
   <si>
     <t>纳指ETF富国</t>
   </si>
   <si>
-    <t>纳斯达克指数ETF</t>
-  </si>
-  <si>
-    <t>法国CAC40ETF</t>
-  </si>
-  <si>
-    <t>纳斯达克100LOF</t>
-  </si>
-  <si>
-    <t>标普信息科技LOF</t>
-  </si>
-  <si>
-    <t>银河高股息LOF</t>
-  </si>
-  <si>
     <t>日经225ETF</t>
   </si>
   <si>
-    <t>纳指生物科技ETF</t>
-  </si>
-  <si>
-    <t>标普500LOF</t>
-  </si>
-  <si>
-    <t>标普生物科技ETF</t>
-  </si>
-  <si>
-    <t>港股央企红利50ETF</t>
-  </si>
-  <si>
-    <t>港股红利指数ETF</t>
-  </si>
-  <si>
-    <t>红利ETF港股</t>
-  </si>
-  <si>
-    <t>港股通央企红利ETF南方</t>
-  </si>
-  <si>
-    <t>港股通红利30ETF</t>
-  </si>
-  <si>
-    <t>港股央企红利ETF</t>
-  </si>
-  <si>
-    <t>港股国企ETF</t>
-  </si>
-  <si>
-    <t>日经225ETF易方达</t>
-  </si>
-  <si>
-    <t>港股通金融ETF</t>
-  </si>
-  <si>
-    <t>港股通央企红利ETF</t>
-  </si>
-  <si>
-    <t>H股ETF</t>
-  </si>
-  <si>
-    <t>恒生红利低波ETF</t>
-  </si>
-  <si>
-    <t>港股通互联网ETF</t>
-  </si>
-  <si>
-    <t>恒生央企ETF</t>
-  </si>
-  <si>
-    <t>恒生高股息ETF</t>
-  </si>
-  <si>
-    <t>恒生ETF易方达</t>
-  </si>
-  <si>
-    <t>恒生指数ETF</t>
-  </si>
-  <si>
-    <t>恒生科技30ETF</t>
-  </si>
-  <si>
-    <t>中概互联网ETF</t>
-  </si>
-  <si>
-    <t>海外科技LOF</t>
-  </si>
-  <si>
-    <t>港股红利ETF</t>
-  </si>
-  <si>
-    <t>恒生红利ETF</t>
-  </si>
-  <si>
-    <t>恒生新经济ETF</t>
-  </si>
-  <si>
-    <t>东南亚科技ETF</t>
-  </si>
-  <si>
-    <t>港股通科技30ETF</t>
-  </si>
-  <si>
-    <t>港股消费50ETF</t>
-  </si>
-  <si>
-    <t>港股消费ETF</t>
-  </si>
-  <si>
-    <t>恒生ETF港股通</t>
-  </si>
-  <si>
-    <t>恒生科技ETF基金</t>
-  </si>
-  <si>
-    <t>恒生ETF</t>
-  </si>
-  <si>
-    <t>港股通100ETF</t>
-  </si>
-  <si>
-    <t>恒生医疗ETF</t>
-  </si>
-  <si>
-    <t>恒生生物科技ETF</t>
-  </si>
-  <si>
-    <t>香港科技ETF</t>
-  </si>
-  <si>
-    <t>美国消费LOF</t>
-  </si>
-  <si>
-    <t>恒生医药ETF</t>
-  </si>
-  <si>
-    <t>恒生国企ETF</t>
-  </si>
-  <si>
-    <t>港股通50ETF</t>
-  </si>
-  <si>
-    <t>恒生科技ETF指数基金</t>
-  </si>
-  <si>
-    <t>港股红利低波ETF</t>
-  </si>
-  <si>
-    <t>恒生科技指数ETF</t>
-  </si>
-  <si>
-    <t>港股创新药ETF</t>
-  </si>
-  <si>
-    <t>港股通医药ETF</t>
-  </si>
-  <si>
-    <t>恒生互联网ETF</t>
-  </si>
-  <si>
-    <t>港股金融ETF</t>
-  </si>
-  <si>
-    <t>港股高股息ETF</t>
-  </si>
-  <si>
-    <t>恒生医疗指数ETF</t>
-  </si>
-  <si>
-    <t>港股创新药50ETF</t>
-  </si>
-  <si>
-    <t>港股通ETF</t>
-  </si>
-  <si>
-    <t>印度基金LOF</t>
-  </si>
-  <si>
-    <t>港股通科技50ETF</t>
-  </si>
-  <si>
-    <t>港股通红利ETF</t>
-  </si>
-  <si>
-    <t>香港医药ETF</t>
-  </si>
-  <si>
-    <t>香港消费ETF</t>
-  </si>
-  <si>
-    <t>美元债LOF</t>
-  </si>
-  <si>
-    <t>中概互联ETF</t>
-  </si>
-  <si>
-    <t>红利港股ETF</t>
-  </si>
-  <si>
-    <t>港股通科技ETF</t>
-  </si>
-  <si>
-    <t>港股非银ETF</t>
-  </si>
-  <si>
-    <t>恒生中国企业ETF</t>
-  </si>
-  <si>
-    <t>港股科技ETF</t>
+    <t>港股科技50ETF</t>
   </si>
   <si>
     <t>恒生港股消费ETF</t>
   </si>
   <si>
-    <t>港股互联网ETF</t>
-  </si>
-  <si>
-    <t>港股通红利低波ETF</t>
-  </si>
-  <si>
-    <t>港股科技30ETF</t>
-  </si>
-  <si>
-    <t>香港科技50ETF</t>
-  </si>
-  <si>
-    <t>港股通创新药ETF</t>
-  </si>
-  <si>
-    <t>日本东证指数ETF</t>
-  </si>
-  <si>
-    <t>港股医药ETF</t>
-  </si>
-  <si>
-    <t>香港证券ETF</t>
-  </si>
-  <si>
-    <t>标普生物科技LOF</t>
-  </si>
-  <si>
-    <t>恒生医疗ETF基金</t>
-  </si>
-  <si>
-    <t>港股科技50ETF</t>
-  </si>
-  <si>
     <t>港股创新药ETF基金</t>
-  </si>
-  <si>
-    <t>香港大盘LOF</t>
-  </si>
-  <si>
-    <t>恒生科技ETF龙头</t>
-  </si>
-  <si>
-    <t>美国REIT精选LOF</t>
-  </si>
-  <si>
-    <t>恒生港股通ETF</t>
-  </si>
-  <si>
-    <t>新经济ETF</t>
-  </si>
-  <si>
-    <t>香港银行LOF</t>
-  </si>
-  <si>
-    <t>恒生LOF</t>
-  </si>
-  <si>
-    <t>恒生科技HKETF</t>
-  </si>
-  <si>
-    <t>恒生指数LOF</t>
-  </si>
-  <si>
-    <t>恒生指数基金LOF</t>
-  </si>
-  <si>
-    <t>恒生消费ETF</t>
-  </si>
-  <si>
-    <t>恒生科技ETF</t>
-  </si>
-  <si>
-    <t>港股高股息LOF</t>
-  </si>
-  <si>
-    <t>H股LOF</t>
-  </si>
-  <si>
-    <t>标普医疗保健LOF</t>
-  </si>
-  <si>
-    <t>港股高股息LOFC</t>
-  </si>
-  <si>
-    <t>全球芯片LOF T+1</t>
-  </si>
-  <si>
-    <t>港美互联网LOF</t>
-  </si>
-  <si>
-    <t>恒生国企LOF</t>
-  </si>
-  <si>
-    <t>香港中小LOF</t>
-  </si>
-  <si>
-    <t>港股精选LOF</t>
-  </si>
-  <si>
-    <t>港股小盘LOF</t>
-  </si>
-  <si>
-    <t>恒生中型股LOF</t>
-  </si>
-  <si>
-    <t>中概互联网LOF</t>
-  </si>
-  <si>
-    <t>价值基金LOF</t>
-  </si>
-  <si>
-    <t>中韩半导体ETF</t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1391,7 +1256,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>159529</v>
+        <v>159100</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1399,7 +1264,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>159100</v>
+        <v>159303</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1407,7 +1272,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>161725</v>
+        <v>159312</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1415,7 +1280,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>159329</v>
+        <v>159318</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1423,7 +1288,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>159612</v>
+        <v>159329</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1431,7 +1296,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>159561</v>
+        <v>159501</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -1439,7 +1304,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>159687</v>
+        <v>159502</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -1447,7 +1312,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>159655</v>
+        <v>159506</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -1455,1261 +1320,872 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>520830</v>
+        <v>159509</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>513390</v>
+        <v>159513</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>159509</v>
+        <v>159518</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>159632</v>
+        <v>159519</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>513500</v>
+        <v>159529</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>159941</v>
+        <v>159557</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>159660</v>
+        <v>159561</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>513300</v>
+        <v>159567</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>513030</v>
+        <v>159568</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>513100</v>
+        <v>159570</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>513400</v>
+        <v>159577</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>513520</v>
+        <v>159605</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>159518</v>
+        <v>159607</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>513850</v>
+        <v>159612</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>513110</v>
+        <v>159615</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>159513</v>
+        <v>159632</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>159577</v>
+        <v>159636</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>513650</v>
+        <v>159655</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>159696</v>
+        <v>159659</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>513360</v>
+        <v>159660</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>159659</v>
+        <v>159687</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>513870</v>
+        <v>159688</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>159501</v>
+        <v>159696</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>513080</v>
+        <v>159699</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>513350</v>
+        <v>159711</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>161130</v>
+        <v>159712</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>161128</v>
+        <v>159718</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>501307</v>
+        <v>159735</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>159866</v>
+        <v>159740</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>513880</v>
+        <v>159741</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>513290</v>
+        <v>159742</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>161125</v>
+        <v>159747</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>159502</v>
+        <v>159750</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>520990</v>
+        <v>159751</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>513630</v>
+        <v>159776</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>520900</v>
+        <v>159788</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>520660</v>
+        <v>159792</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>513820</v>
+        <v>159822</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>513910</v>
+        <v>159850</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>513810</v>
+        <v>159866</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>513000</v>
+        <v>159892</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>513190</v>
+        <v>159920</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>513920</v>
+        <v>159941</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>159954</v>
+        <v>159960</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>159545</v>
+        <v>161725</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>513040</v>
+        <v>513000</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>513170</v>
+        <v>513010</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>513690</v>
+        <v>513020</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>513210</v>
+        <v>513030</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>513600</v>
+        <v>513040</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>513010</v>
+        <v>513050</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>513050</v>
+        <v>513060</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>501312</v>
+        <v>513070</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>159691</v>
+        <v>513080</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>159726</v>
+        <v>513090</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>513320</v>
+        <v>513100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>510900</v>
+        <v>513110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>159792</v>
+        <v>513120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>513730</v>
+        <v>513130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>159636</v>
+        <v>513140</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>513070</v>
+        <v>513150</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>513230</v>
+        <v>513160</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>159312</v>
+        <v>513170</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>513260</v>
+        <v>513180</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>513660</v>
+        <v>513190</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>159788</v>
+        <v>513200</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>513060</v>
+        <v>513210</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>159615</v>
+        <v>513220</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>159747</v>
+        <v>513230</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>162415</v>
+        <v>513260</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>159892</v>
+        <v>513280</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>513280</v>
+        <v>513290</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>159850</v>
+        <v>513300</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>513550</v>
+        <v>513310</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>513580</v>
+        <v>513320</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>159569</v>
+        <v>513330</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>513180</v>
+        <v>513350</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>513120</v>
+        <v>513360</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>159920</v>
+        <v>513380</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>513200</v>
+        <v>513390</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>159688</v>
+        <v>513400</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>513140</v>
+        <v>513500</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>159333</v>
+        <v>513520</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>159557</v>
+        <v>513550</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>513780</v>
+        <v>513560</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>159711</v>
+        <v>513580</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>164824</v>
+        <v>513590</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>513150</v>
+        <v>513600</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>513530</v>
+        <v>513650</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>513700</v>
+        <v>513660</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>513590</v>
+        <v>513700</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>159506</v>
+        <v>513730</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>513990</v>
+        <v>513750</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>513330</v>
+        <v>513770</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>501300</v>
+        <v>513780</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>513220</v>
+        <v>513800</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>159331</v>
+        <v>513810</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>513860</v>
+        <v>513850</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>513750</v>
+        <v>513860</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>159960</v>
+        <v>513870</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>159751</v>
+        <v>513880</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>159742</v>
+        <v>513900</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>159302</v>
+        <v>513970</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>520520</v>
+        <v>513980</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>159568</v>
+        <v>513990</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>513950</v>
+        <v>520520</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>520890</v>
+        <v>520700</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>513160</v>
+        <v>520830</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1">
-        <v>159735</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1">
-        <v>159750</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1">
-        <v>159570</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1">
-        <v>513800</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1">
-        <v>159776</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1">
-        <v>159712</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1">
-        <v>159567</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1">
-        <v>513560</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1">
-        <v>159718</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1">
-        <v>513090</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1">
-        <v>161127</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1">
-        <v>159303</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1">
-        <v>159519</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1">
-        <v>513980</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1">
-        <v>520700</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1">
-        <v>501301</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1">
-        <v>513380</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1">
-        <v>513770</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1">
-        <v>160140</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1">
-        <v>159318</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1">
-        <v>159822</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1">
-        <v>501025</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1">
-        <v>164705</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1">
-        <v>513900</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1">
-        <v>513890</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1">
-        <v>160924</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1">
-        <v>501302</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1">
-        <v>159699</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1">
-        <v>513970</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
-        <v>159740</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
-        <v>501305</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
-        <v>160717</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
-        <v>161126</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
-        <v>513020</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
-        <v>501306</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1">
-        <v>159607</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1">
-        <v>513130</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1">
-        <v>159741</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1">
-        <v>159605</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1">
-        <v>501225</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1">
-        <v>160644</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
-        <v>161831</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1">
-        <v>501021</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1">
-        <v>160322</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
-        <v>161124</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1">
-        <v>501303</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1">
-        <v>164906</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1">
-        <v>501310</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1">
-        <v>513310</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:B166">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
